--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.868948913373</v>
+        <v>155.2138263333333</v>
       </c>
       <c r="H2">
-        <v>151.868948913373</v>
+        <v>465.641479</v>
       </c>
       <c r="I2">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="J2">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N2">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O2">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P2">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q2">
-        <v>616.018186059526</v>
+        <v>640.5966932149594</v>
       </c>
       <c r="R2">
-        <v>616.018186059526</v>
+        <v>5765.370238934634</v>
       </c>
       <c r="S2">
-        <v>0.0198809005600418</v>
+        <v>0.01960551813163351</v>
       </c>
       <c r="T2">
-        <v>0.0198809005600418</v>
+        <v>0.01960551813163351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.868948913373</v>
+        <v>155.2138263333333</v>
       </c>
       <c r="H3">
-        <v>151.868948913373</v>
+        <v>465.641479</v>
       </c>
       <c r="I3">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="J3">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N3">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P3">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q3">
-        <v>7137.357506893011</v>
+        <v>7333.700149941351</v>
       </c>
       <c r="R3">
-        <v>7137.357506893011</v>
+        <v>66003.30134947215</v>
       </c>
       <c r="S3">
-        <v>0.2303456262609368</v>
+        <v>0.2244485380341969</v>
       </c>
       <c r="T3">
-        <v>0.2303456262609368</v>
+        <v>0.2244485380341968</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.868948913373</v>
+        <v>155.2138263333333</v>
       </c>
       <c r="H4">
-        <v>151.868948913373</v>
+        <v>465.641479</v>
       </c>
       <c r="I4">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="J4">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N4">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O4">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P4">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q4">
-        <v>1057.338589400877</v>
+        <v>1275.678846132064</v>
       </c>
       <c r="R4">
-        <v>1057.338589400877</v>
+        <v>11481.10961518858</v>
       </c>
       <c r="S4">
-        <v>0.03412373827571134</v>
+        <v>0.03904226327248773</v>
       </c>
       <c r="T4">
-        <v>0.03412373827571134</v>
+        <v>0.03904226327248773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.868948913373</v>
+        <v>155.2138263333333</v>
       </c>
       <c r="H5">
-        <v>151.868948913373</v>
+        <v>465.641479</v>
       </c>
       <c r="I5">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="J5">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6857921331359</v>
+        <v>13.92629833333334</v>
       </c>
       <c r="N5">
-        <v>12.6857921331359</v>
+        <v>41.77889500000001</v>
       </c>
       <c r="O5">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="P5">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="Q5">
-        <v>1926.577917392885</v>
+        <v>2161.55405097619</v>
       </c>
       <c r="R5">
-        <v>1926.577917392885</v>
+        <v>19453.98645878571</v>
       </c>
       <c r="S5">
-        <v>0.06217690461683745</v>
+        <v>0.06615455182298143</v>
       </c>
       <c r="T5">
-        <v>0.06217690461683745</v>
+        <v>0.06615455182298141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>245.264233004029</v>
+        <v>246.1811623333333</v>
       </c>
       <c r="H6">
-        <v>245.264233004029</v>
+        <v>738.543487</v>
       </c>
       <c r="I6">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="J6">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N6">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O6">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P6">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q6">
-        <v>994.8526608069432</v>
+        <v>1016.036021068573</v>
       </c>
       <c r="R6">
-        <v>994.8526608069432</v>
+        <v>9144.324189617155</v>
       </c>
       <c r="S6">
-        <v>0.0321071151290404</v>
+        <v>0.03109587177773383</v>
       </c>
       <c r="T6">
-        <v>0.0321071151290404</v>
+        <v>0.03109587177773382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>245.264233004029</v>
+        <v>246.1811623333333</v>
       </c>
       <c r="H7">
-        <v>245.264233004029</v>
+        <v>738.543487</v>
       </c>
       <c r="I7">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="J7">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N7">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O7">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P7">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q7">
-        <v>11526.63877065602</v>
+        <v>11631.81702150316</v>
       </c>
       <c r="R7">
-        <v>11526.63877065602</v>
+        <v>104686.3531935285</v>
       </c>
       <c r="S7">
-        <v>0.3720019382167898</v>
+        <v>0.3559927828762607</v>
       </c>
       <c r="T7">
-        <v>0.3720019382167898</v>
+        <v>0.3559927828762606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>245.264233004029</v>
+        <v>246.1811623333333</v>
       </c>
       <c r="H8">
-        <v>245.264233004029</v>
+        <v>738.543487</v>
       </c>
       <c r="I8">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="J8">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N8">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O8">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P8">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q8">
-        <v>1707.573141254109</v>
+        <v>2023.325553680992</v>
       </c>
       <c r="R8">
-        <v>1707.573141254109</v>
+        <v>18209.92998312893</v>
       </c>
       <c r="S8">
-        <v>0.05510891169857565</v>
+        <v>0.06192405650707745</v>
       </c>
       <c r="T8">
-        <v>0.05510891169857565</v>
+        <v>0.06192405650707745</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>245.264233004029</v>
+        <v>246.1811623333333</v>
       </c>
       <c r="H9">
-        <v>245.264233004029</v>
+        <v>738.543487</v>
       </c>
       <c r="I9">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="J9">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.6857921331359</v>
+        <v>13.92629833333334</v>
       </c>
       <c r="N9">
-        <v>12.6857921331359</v>
+        <v>41.77889500000001</v>
       </c>
       <c r="O9">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="P9">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="Q9">
-        <v>3111.371077582121</v>
+        <v>3428.392310700763</v>
       </c>
       <c r="R9">
-        <v>3111.371077582121</v>
+        <v>30855.53079630687</v>
       </c>
       <c r="S9">
-        <v>0.1004140143888918</v>
+        <v>0.104926248171003</v>
       </c>
       <c r="T9">
-        <v>0.1004140143888918</v>
+        <v>0.104926248171003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.20386494663305</v>
+        <v>0.2401933333333333</v>
       </c>
       <c r="H10">
-        <v>0.20386494663305</v>
+        <v>0.72058</v>
       </c>
       <c r="I10">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="J10">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N10">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O10">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P10">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q10">
-        <v>0.8269268703350788</v>
+        <v>0.9913231230777777</v>
       </c>
       <c r="R10">
-        <v>0.8269268703350788</v>
+        <v>8.921908107699998</v>
       </c>
       <c r="S10">
-        <v>2.668760639149325E-05</v>
+        <v>3.033953136140708E-05</v>
       </c>
       <c r="T10">
-        <v>2.668760639149325E-05</v>
+        <v>3.033953136140707E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.20386494663305</v>
+        <v>0.2401933333333333</v>
       </c>
       <c r="H11">
-        <v>0.20386494663305</v>
+        <v>0.72058</v>
       </c>
       <c r="I11">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="J11">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N11">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O11">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P11">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q11">
-        <v>9.581004001507353</v>
+        <v>11.34889800924444</v>
       </c>
       <c r="R11">
-        <v>9.581004001507353</v>
+        <v>102.1400820832</v>
       </c>
       <c r="S11">
-        <v>0.0003092100073177454</v>
+        <v>0.0003473340216254265</v>
       </c>
       <c r="T11">
-        <v>0.0003092100073177454</v>
+        <v>0.0003473340216254265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.20386494663305</v>
+        <v>0.2401933333333333</v>
       </c>
       <c r="H12">
-        <v>0.20386494663305</v>
+        <v>0.72058</v>
       </c>
       <c r="I12">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="J12">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N12">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O12">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P12">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q12">
-        <v>1.419343958350747</v>
+        <v>1.97411249728</v>
       </c>
       <c r="R12">
-        <v>1.419343958350747</v>
+        <v>17.76701247552</v>
       </c>
       <c r="S12">
-        <v>4.580682313450503E-05</v>
+        <v>6.041788658799704E-05</v>
       </c>
       <c r="T12">
-        <v>4.580682313450503E-05</v>
+        <v>6.041788658799704E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.20386494663305</v>
+        <v>0.2401933333333333</v>
       </c>
       <c r="H13">
-        <v>0.20386494663305</v>
+        <v>0.72058</v>
       </c>
       <c r="I13">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="J13">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.6857921331359</v>
+        <v>13.92629833333334</v>
       </c>
       <c r="N13">
-        <v>12.6857921331359</v>
+        <v>41.77889500000001</v>
       </c>
       <c r="O13">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="P13">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="Q13">
-        <v>2.586188336219716</v>
+        <v>3.345004017677778</v>
       </c>
       <c r="R13">
-        <v>2.586188336219716</v>
+        <v>30.1050361591</v>
       </c>
       <c r="S13">
-        <v>8.346466761121854E-05</v>
+        <v>0.0001023741421296447</v>
       </c>
       <c r="T13">
-        <v>8.346466761121854E-05</v>
+        <v>0.0001023741421296446</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>40.9228132182852</v>
+        <v>42.784114</v>
       </c>
       <c r="H14">
-        <v>40.9228132182852</v>
+        <v>128.352342</v>
       </c>
       <c r="I14">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492123</v>
       </c>
       <c r="J14">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492124</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N14">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O14">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P14">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q14">
-        <v>165.9930969928575</v>
+        <v>176.5780961528033</v>
       </c>
       <c r="R14">
-        <v>165.9930969928575</v>
+        <v>1589.20286537523</v>
       </c>
       <c r="S14">
-        <v>0.005357134463964485</v>
+        <v>0.005404188161507461</v>
       </c>
       <c r="T14">
-        <v>0.005357134463964485</v>
+        <v>0.005404188161507461</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>40.9228132182852</v>
+        <v>42.784114</v>
       </c>
       <c r="H15">
-        <v>40.9228132182852</v>
+        <v>128.352342</v>
       </c>
       <c r="I15">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492123</v>
       </c>
       <c r="J15">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492124</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N15">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O15">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P15">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q15">
-        <v>1923.242046623455</v>
+        <v>2021.507172840853</v>
       </c>
       <c r="R15">
-        <v>1923.242046623455</v>
+        <v>18193.56455556768</v>
       </c>
       <c r="S15">
-        <v>0.0620692452708165</v>
+        <v>0.06186840480155172</v>
       </c>
       <c r="T15">
-        <v>0.0620692452708165</v>
+        <v>0.06186840480155172</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>40.9228132182852</v>
+        <v>42.784114</v>
       </c>
       <c r="H16">
-        <v>40.9228132182852</v>
+        <v>128.352342</v>
       </c>
       <c r="I16">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492123</v>
       </c>
       <c r="J16">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492124</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N16">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O16">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P16">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q16">
-        <v>284.9118922079215</v>
+        <v>351.6361297806719</v>
       </c>
       <c r="R16">
-        <v>284.9118922079215</v>
+        <v>3164.725168026048</v>
       </c>
       <c r="S16">
-        <v>0.009195028857170285</v>
+        <v>0.01076185467576093</v>
       </c>
       <c r="T16">
-        <v>0.009195028857170285</v>
+        <v>0.01076185467576093</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.9228132182852</v>
+        <v>42.784114</v>
       </c>
       <c r="H17">
-        <v>40.9228132182852</v>
+        <v>128.352342</v>
       </c>
       <c r="I17">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492123</v>
       </c>
       <c r="J17">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492124</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.6857921331359</v>
+        <v>13.92629833333334</v>
       </c>
       <c r="N17">
-        <v>12.6857921331359</v>
+        <v>41.77889500000001</v>
       </c>
       <c r="O17">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="P17">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="Q17">
-        <v>519.1383019903122</v>
+        <v>595.8243354913434</v>
       </c>
       <c r="R17">
-        <v>519.1383019903122</v>
+        <v>5362.41901942209</v>
       </c>
       <c r="S17">
-        <v>0.01675427315676851</v>
+        <v>0.01823525618610114</v>
       </c>
       <c r="T17">
-        <v>0.01675427315676851</v>
+        <v>0.01823525618610114</v>
       </c>
     </row>
   </sheetData>
